--- a/Fabril Docs Vital/VPL Updated/VPL Negative payments/Negative payments VPL.xlsx
+++ b/Fabril Docs Vital/VPL Updated/VPL Negative payments/Negative payments VPL.xlsx
@@ -923,7 +923,7 @@
   <dimension ref="A1:O34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="O3" sqref="O3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -938,7 +938,7 @@
     <col min="9" max="9" width="16.7109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="14" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" customWidth="1"/>
+    <col min="14" max="14" width="19.85546875" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="42.42578125" customWidth="1"/>
   </cols>
   <sheetData>

--- a/Fabril Docs Vital/VPL Updated/VPL Negative payments/Negative payments VPL.xlsx
+++ b/Fabril Docs Vital/VPL Updated/VPL Negative payments/Negative payments VPL.xlsx
@@ -1,22 +1,254 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FABRIL\Documents\GitHub\Fabril-Solutions\Fabril Docs Vital\VPL Updated\VPL Negative payments\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="135" windowWidth="27795" windowHeight="11325"/>
+    <workbookView xWindow="480" yWindow="140" windowWidth="27800" windowHeight="11330"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>HP</author>
+  </authors>
+  <commentList>
+    <comment ref="C17" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>HP:
+CONNECT GIVEN AFTER A MONTH.</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+IAUDITOR NOT SUBMITTED.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C18" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>HP:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C19" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>HP:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+DEDUCTED FOR WHOLE JOB</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C20" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>HP:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+DEDUCTED FOR WHOLE JOB</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C21" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>HP:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+DEDUCTED FROM OSB AS PER STEVE</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C22" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>HP:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+WIRING INTEGRATION</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C23" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>HP:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+WIRING INTEGRATION</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C24" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>HP:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+WIRING INTEGRATION</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C25" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>HP:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+IAUDITOR NOT SUBMITED</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="78">
   <si>
     <t>Job ID</t>
   </si>
@@ -253,15 +485,43 @@
   <si>
     <t> Wiring Integration not done in lx s/o (06839988)</t>
   </si>
+  <si>
+    <t>NGA_PS_14442018_82</t>
+  </si>
+  <si>
+    <t>Ganga Reddy Nimmala</t>
+  </si>
+  <si>
+    <t>Venkat Gorla</t>
+  </si>
+  <si>
+    <t>N-563RSP</t>
+  </si>
+  <si>
+    <t>NGA_PS_14442018_85</t>
+  </si>
+  <si>
+    <t>NGA-F02577</t>
+  </si>
+  <si>
+    <t>As per FM Steve</t>
+  </si>
+  <si>
+    <t>Anakhbir Singh</t>
+  </si>
+  <si>
+    <t>Avinash Nallamothu</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="2">
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;0.00"/>
   </numFmts>
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -325,13 +585,6 @@
       <family val="2"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF212121"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
@@ -387,8 +640,28 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -413,8 +686,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -485,6 +764,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -494,9 +788,9 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -544,21 +838,15 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="3" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="3" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -583,38 +871,59 @@
     <xf numFmtId="8" fontId="7" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="12" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="15" fontId="13" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="15" fontId="15" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="15" fontId="16" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="19" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="19" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="19" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -628,6 +937,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -676,7 +988,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -711,7 +1023,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -919,77 +1231,77 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O3" sqref="O3"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="23.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="23.7109375" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" customWidth="1"/>
-    <col min="5" max="5" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="38.42578125" customWidth="1"/>
-    <col min="7" max="7" width="27.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="23.7265625" customWidth="1"/>
+    <col min="4" max="4" width="13.7265625" customWidth="1"/>
+    <col min="5" max="5" width="19.7265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="38.453125" customWidth="1"/>
+    <col min="7" max="7" width="27.1796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.7265625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.7265625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="14" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="42.42578125" customWidth="1"/>
+    <col min="11" max="11" width="17.7265625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19.81640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="42.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="37" t="s">
+    <row r="1" spans="1:15" ht="21.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="35" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="38" t="s">
+      <c r="C1" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="38" t="s">
+      <c r="D1" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="37" t="s">
+      <c r="E1" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="F1" s="37" t="s">
+      <c r="F1" s="35" t="s">
         <v>50</v>
       </c>
-      <c r="G1" s="37" t="s">
+      <c r="G1" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="H1" s="39" t="s">
+      <c r="H1" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="39" t="s">
+      <c r="I1" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="39" t="s">
+      <c r="J1" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="39" t="s">
+      <c r="K1" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="L1" s="39" t="s">
+      <c r="L1" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="M1" s="39" t="s">
+      <c r="M1" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="N1" s="40" t="s">
+      <c r="N1" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="O1" s="39" t="s">
+      <c r="O1" s="37" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" ht="47" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
@@ -1032,7 +1344,7 @@
       </c>
       <c r="O2" s="1"/>
     </row>
-    <row r="3" spans="1:15" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" ht="62.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
         <v>14</v>
       </c>
@@ -1073,7 +1385,7 @@
       </c>
       <c r="O3" s="1"/>
     </row>
-    <row r="4" spans="1:15" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" ht="31.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
         <v>19</v>
       </c>
@@ -1116,7 +1428,7 @@
       </c>
       <c r="O4" s="1"/>
     </row>
-    <row r="5" spans="1:15" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" ht="31.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="2" t="s">
         <v>22</v>
       </c>
@@ -1159,7 +1471,7 @@
       </c>
       <c r="O5" s="1"/>
     </row>
-    <row r="6" spans="1:15" ht="28.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" ht="30.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="2" t="s">
         <v>25</v>
       </c>
@@ -1200,7 +1512,7 @@
       </c>
       <c r="O6" s="1"/>
     </row>
-    <row r="7" spans="1:15" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" ht="31.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="2" t="s">
         <v>29</v>
       </c>
@@ -1243,7 +1555,7 @@
       </c>
       <c r="O7" s="1"/>
     </row>
-    <row r="8" spans="1:15" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" ht="47" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="4" t="s">
         <v>31</v>
       </c>
@@ -1286,7 +1598,7 @@
       </c>
       <c r="O8" s="1"/>
     </row>
-    <row r="9" spans="1:15" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" ht="47" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="2" t="s">
         <v>22</v>
       </c>
@@ -1329,362 +1641,662 @@
       </c>
       <c r="O9" s="1"/>
     </row>
-    <row r="10" spans="1:15" ht="63" x14ac:dyDescent="0.25">
-      <c r="A10" s="22" t="s">
+    <row r="10" spans="1:15" ht="68" x14ac:dyDescent="0.35">
+      <c r="A10" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="23" t="s">
+      <c r="B10" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="C10" s="22">
+      <c r="C10" s="20">
         <v>2265057</v>
       </c>
-      <c r="D10" s="22">
+      <c r="D10" s="20">
         <v>6215662</v>
       </c>
-      <c r="E10" s="22" t="s">
+      <c r="E10" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="F10" s="27" t="s">
+      <c r="F10" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="G10" s="22" t="s">
+      <c r="G10" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="H10" s="24">
+      <c r="H10" s="22">
         <v>43178</v>
       </c>
-      <c r="I10" s="24">
+      <c r="I10" s="22">
         <v>43178</v>
       </c>
-      <c r="J10" s="22" t="s">
+      <c r="J10" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="K10" s="22"/>
-      <c r="L10" s="22">
+      <c r="K10" s="20"/>
+      <c r="L10" s="20">
         <v>-1</v>
       </c>
-      <c r="M10" s="25">
+      <c r="M10" s="23">
         <v>194.94</v>
       </c>
-      <c r="N10" s="26">
+      <c r="N10" s="24">
         <v>-194.94</v>
       </c>
-      <c r="O10" s="27"/>
-    </row>
-    <row r="11" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="22" t="s">
+      <c r="O10" s="25"/>
+    </row>
+    <row r="11" spans="1:15" ht="34" x14ac:dyDescent="0.35">
+      <c r="A11" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="B11" s="23" t="s">
+      <c r="B11" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="C11" s="22">
+      <c r="C11" s="20">
         <v>2164326</v>
       </c>
-      <c r="D11" s="22">
+      <c r="D11" s="20">
         <v>4189962</v>
       </c>
-      <c r="E11" s="22" t="s">
+      <c r="E11" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="F11" s="27" t="s">
+      <c r="F11" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="G11" s="22" t="s">
+      <c r="G11" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="H11" s="24">
+      <c r="H11" s="22">
         <v>43123</v>
       </c>
-      <c r="I11" s="24">
+      <c r="I11" s="22">
         <v>43123</v>
       </c>
-      <c r="J11" s="22" t="s">
+      <c r="J11" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="K11" s="22"/>
-      <c r="L11" s="22">
+      <c r="K11" s="20"/>
+      <c r="L11" s="20">
         <v>-1</v>
       </c>
-      <c r="M11" s="25">
+      <c r="M11" s="23">
         <v>383.5</v>
       </c>
-      <c r="N11" s="26">
+      <c r="N11" s="24">
         <v>-383.5</v>
       </c>
-      <c r="O11" s="27"/>
-    </row>
-    <row r="12" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="30" t="s">
+      <c r="O11" s="25"/>
+    </row>
+    <row r="12" spans="1:15" ht="34" x14ac:dyDescent="0.35">
+      <c r="A12" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="31" t="s">
+      <c r="B12" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="C12" s="30">
+      <c r="C12" s="28">
         <v>2171378</v>
       </c>
-      <c r="D12" s="30">
+      <c r="D12" s="28">
         <v>4328399</v>
       </c>
-      <c r="E12" s="30" t="s">
+      <c r="E12" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="F12" s="32" t="s">
+      <c r="F12" s="30" t="s">
         <v>65</v>
       </c>
-      <c r="G12" s="30" t="s">
+      <c r="G12" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="H12" s="33">
+      <c r="H12" s="31">
         <v>43146</v>
       </c>
-      <c r="I12" s="33">
+      <c r="I12" s="31">
         <v>43146</v>
       </c>
-      <c r="J12" s="30" t="s">
+      <c r="J12" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="K12" s="30"/>
-      <c r="L12" s="22">
+      <c r="K12" s="28"/>
+      <c r="L12" s="20">
         <v>-10.79</v>
       </c>
-      <c r="M12" s="25">
+      <c r="M12" s="23">
         <v>11.79</v>
       </c>
-      <c r="N12" s="26">
+      <c r="N12" s="24">
         <v>-127.21</v>
       </c>
-      <c r="O12" s="27"/>
-    </row>
-    <row r="13" spans="1:15" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="31" t="s">
+      <c r="O12" s="25"/>
+    </row>
+    <row r="13" spans="1:15" ht="66.5" x14ac:dyDescent="0.35">
+      <c r="A13" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="B13" s="34" t="s">
+      <c r="B13" s="32" t="s">
         <v>59</v>
       </c>
-      <c r="C13" s="30"/>
-      <c r="D13" s="30">
+      <c r="C13" s="28"/>
+      <c r="D13" s="28">
         <v>5054531</v>
       </c>
-      <c r="E13" s="30" t="s">
+      <c r="E13" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="F13" s="32" t="s">
+      <c r="F13" s="30" t="s">
         <v>63</v>
       </c>
-      <c r="G13" s="30" t="s">
+      <c r="G13" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="H13" s="33">
+      <c r="H13" s="31">
         <v>43179</v>
       </c>
-      <c r="I13" s="33">
+      <c r="I13" s="31">
         <v>43179</v>
       </c>
-      <c r="J13" s="30" t="s">
+      <c r="J13" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="K13" s="30"/>
-      <c r="L13" s="22">
+      <c r="K13" s="28"/>
+      <c r="L13" s="20">
         <v>-1</v>
       </c>
-      <c r="M13" s="25">
+      <c r="M13" s="23">
         <v>194.94</v>
       </c>
-      <c r="N13" s="26">
+      <c r="N13" s="24">
         <v>-194.94</v>
       </c>
-      <c r="O13" s="27"/>
-    </row>
-    <row r="14" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="30" t="s">
+      <c r="O13" s="25"/>
+    </row>
+    <row r="14" spans="1:15" ht="34" x14ac:dyDescent="0.35">
+      <c r="A14" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="B14" s="34" t="s">
+      <c r="B14" s="32" t="s">
         <v>64</v>
       </c>
-      <c r="C14" s="30">
+      <c r="C14" s="28">
         <v>2206070</v>
       </c>
-      <c r="D14" s="30">
+      <c r="D14" s="28">
         <v>5668521</v>
       </c>
-      <c r="E14" s="30" t="s">
+      <c r="E14" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="F14" s="32" t="s">
+      <c r="F14" s="30" t="s">
         <v>67</v>
       </c>
-      <c r="G14" s="30" t="s">
+      <c r="G14" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="H14" s="33">
+      <c r="H14" s="31">
         <v>43193</v>
       </c>
-      <c r="I14" s="33">
+      <c r="I14" s="31">
         <v>43193</v>
       </c>
-      <c r="J14" s="30" t="s">
+      <c r="J14" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="K14" s="30"/>
-      <c r="L14" s="22">
+      <c r="K14" s="28"/>
+      <c r="L14" s="20">
         <v>-12.03</v>
       </c>
-      <c r="M14" s="25">
+      <c r="M14" s="23">
         <v>11.79</v>
       </c>
-      <c r="N14" s="26">
+      <c r="N14" s="24">
         <v>-141.83000000000001</v>
       </c>
-      <c r="O14" s="27"/>
-    </row>
-    <row r="15" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="35" t="s">
+      <c r="O14" s="25"/>
+    </row>
+    <row r="15" spans="1:15" ht="34" x14ac:dyDescent="0.35">
+      <c r="A15" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="B15" s="31" t="s">
+      <c r="B15" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="C15" s="30">
+      <c r="C15" s="28">
         <v>2236716</v>
       </c>
-      <c r="D15" s="35">
+      <c r="D15" s="33">
         <v>7091305</v>
       </c>
-      <c r="E15" s="35" t="s">
+      <c r="E15" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="F15" s="32" t="s">
+      <c r="F15" s="30" t="s">
         <v>68</v>
       </c>
-      <c r="G15" s="35" t="s">
+      <c r="G15" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="H15" s="36">
+      <c r="H15" s="34">
         <v>43213</v>
       </c>
-      <c r="I15" s="36">
+      <c r="I15" s="34">
         <v>43213</v>
       </c>
-      <c r="J15" s="35" t="s">
+      <c r="J15" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="K15" s="35"/>
-      <c r="L15" s="28">
+      <c r="K15" s="33"/>
+      <c r="L15" s="26">
         <v>-1</v>
       </c>
-      <c r="M15" s="29">
+      <c r="M15" s="27">
         <v>22.61</v>
       </c>
-      <c r="N15" s="29">
+      <c r="N15" s="27">
         <v>-22.61</v>
       </c>
-      <c r="O15" s="27"/>
-    </row>
-    <row r="16" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="35" t="s">
+      <c r="O15" s="25"/>
+    </row>
+    <row r="16" spans="1:15" ht="34" x14ac:dyDescent="0.35">
+      <c r="A16" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="B16" s="31" t="s">
+      <c r="B16" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="C16" s="35">
+      <c r="C16" s="33">
         <v>2315967</v>
       </c>
-      <c r="D16" s="35">
+      <c r="D16" s="33">
         <v>7091305</v>
       </c>
-      <c r="E16" s="35" t="s">
+      <c r="E16" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="F16" s="32" t="s">
+      <c r="F16" s="30" t="s">
         <v>68</v>
       </c>
-      <c r="G16" s="35" t="s">
+      <c r="G16" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="H16" s="36">
+      <c r="H16" s="34">
         <v>43213</v>
       </c>
-      <c r="I16" s="36">
+      <c r="I16" s="34">
         <v>43213</v>
       </c>
-      <c r="J16" s="35" t="s">
+      <c r="J16" s="33" t="s">
         <v>49</v>
       </c>
-      <c r="K16" s="35"/>
-      <c r="L16" s="28">
+      <c r="K16" s="33"/>
+      <c r="L16" s="26">
         <v>-1</v>
       </c>
-      <c r="M16" s="29">
+      <c r="M16" s="27">
         <v>60.72</v>
       </c>
-      <c r="N16" s="29">
+      <c r="N16" s="27">
         <v>-60.72</v>
       </c>
-      <c r="O16" s="27"/>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="16"/>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="16"/>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="18"/>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="18"/>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="19"/>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="18"/>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="17"/>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="19"/>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" s="18"/>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" s="20"/>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" s="18"/>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" s="18"/>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="O16" s="25"/>
+    </row>
+    <row r="17" spans="1:12" ht="26.5" x14ac:dyDescent="0.35">
+      <c r="A17" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="B17" s="40">
+        <v>2269938</v>
+      </c>
+      <c r="C17" s="41">
+        <v>6295220</v>
+      </c>
+      <c r="D17" s="39" t="s">
+        <v>70</v>
+      </c>
+      <c r="E17" s="39" t="s">
+        <v>12</v>
+      </c>
+      <c r="F17" s="42">
+        <v>43207</v>
+      </c>
+      <c r="G17" s="42">
+        <v>43207</v>
+      </c>
+      <c r="H17" s="39" t="s">
+        <v>34</v>
+      </c>
+      <c r="I17" s="39"/>
+      <c r="J17" s="43">
+        <v>-1</v>
+      </c>
+      <c r="K17" s="44">
+        <v>626.70000000000005</v>
+      </c>
+      <c r="L17" s="44">
+        <v>-626.70000000000005</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A18" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="B18" s="40">
+        <v>2296423</v>
+      </c>
+      <c r="C18" s="41">
+        <v>6674899</v>
+      </c>
+      <c r="D18" s="39" t="s">
+        <v>71</v>
+      </c>
+      <c r="E18" s="39" t="s">
+        <v>12</v>
+      </c>
+      <c r="F18" s="42">
+        <v>43210</v>
+      </c>
+      <c r="G18" s="42">
+        <v>43210</v>
+      </c>
+      <c r="H18" s="39" t="s">
+        <v>72</v>
+      </c>
+      <c r="I18" s="39"/>
+      <c r="J18" s="43">
+        <v>-1</v>
+      </c>
+      <c r="K18" s="44">
+        <v>626.70000000000005</v>
+      </c>
+      <c r="L18" s="44">
+        <v>-626.70000000000005</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="26.5" x14ac:dyDescent="0.35">
+      <c r="A19" s="39" t="s">
+        <v>47</v>
+      </c>
+      <c r="B19" s="40">
+        <v>2315967</v>
+      </c>
+      <c r="C19" s="41">
+        <v>7091305</v>
+      </c>
+      <c r="D19" s="39" t="s">
+        <v>32</v>
+      </c>
+      <c r="E19" s="39" t="s">
+        <v>12</v>
+      </c>
+      <c r="F19" s="42">
+        <v>43213</v>
+      </c>
+      <c r="G19" s="42">
+        <v>43213</v>
+      </c>
+      <c r="H19" s="39" t="s">
+        <v>48</v>
+      </c>
+      <c r="I19" s="39"/>
+      <c r="J19" s="43">
+        <v>-1</v>
+      </c>
+      <c r="K19" s="44">
+        <v>22.61</v>
+      </c>
+      <c r="L19" s="44">
+        <v>-22.61</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="26.5" x14ac:dyDescent="0.35">
+      <c r="A20" s="39" t="s">
+        <v>47</v>
+      </c>
+      <c r="B20" s="40">
+        <v>2315967</v>
+      </c>
+      <c r="C20" s="41">
+        <v>7091305</v>
+      </c>
+      <c r="D20" s="39" t="s">
+        <v>32</v>
+      </c>
+      <c r="E20" s="39" t="s">
+        <v>12</v>
+      </c>
+      <c r="F20" s="42">
+        <v>43213</v>
+      </c>
+      <c r="G20" s="42">
+        <v>43213</v>
+      </c>
+      <c r="H20" s="39" t="s">
+        <v>49</v>
+      </c>
+      <c r="I20" s="39"/>
+      <c r="J20" s="43">
+        <v>-1</v>
+      </c>
+      <c r="K20" s="44">
+        <v>60.72</v>
+      </c>
+      <c r="L20" s="44">
+        <v>-60.72</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="26.5" x14ac:dyDescent="0.35">
+      <c r="A21" s="39" t="s">
+        <v>73</v>
+      </c>
+      <c r="B21" s="40">
+        <v>2216020</v>
+      </c>
+      <c r="C21" s="41">
+        <v>5249695</v>
+      </c>
+      <c r="D21" s="39" t="s">
+        <v>70</v>
+      </c>
+      <c r="E21" s="39" t="s">
+        <v>27</v>
+      </c>
+      <c r="F21" s="42">
+        <v>43228</v>
+      </c>
+      <c r="G21" s="42">
+        <v>43228</v>
+      </c>
+      <c r="H21" s="39" t="s">
+        <v>74</v>
+      </c>
+      <c r="I21" s="39" t="s">
+        <v>75</v>
+      </c>
+      <c r="J21" s="43">
+        <v>-40</v>
+      </c>
+      <c r="K21" s="44">
+        <v>11.93</v>
+      </c>
+      <c r="L21" s="44">
+        <v>-477.2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="26.5" x14ac:dyDescent="0.35">
+      <c r="A22" s="39" t="s">
+        <v>73</v>
+      </c>
+      <c r="B22" s="40">
+        <v>2293527</v>
+      </c>
+      <c r="C22" s="41">
+        <v>6779006</v>
+      </c>
+      <c r="D22" s="39" t="s">
+        <v>40</v>
+      </c>
+      <c r="E22" s="39" t="s">
+        <v>12</v>
+      </c>
+      <c r="F22" s="42">
+        <v>43231</v>
+      </c>
+      <c r="G22" s="42">
+        <v>43231</v>
+      </c>
+      <c r="H22" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="I22" s="39"/>
+      <c r="J22" s="43">
+        <v>-12.03</v>
+      </c>
+      <c r="K22" s="44">
+        <v>11.79</v>
+      </c>
+      <c r="L22" s="44">
+        <v>-141.83000000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A23" s="39" t="s">
+        <v>73</v>
+      </c>
+      <c r="B23" s="40">
+        <v>2294509</v>
+      </c>
+      <c r="C23" s="41">
+        <v>6795264</v>
+      </c>
+      <c r="D23" s="39" t="s">
+        <v>76</v>
+      </c>
+      <c r="E23" s="39" t="s">
+        <v>12</v>
+      </c>
+      <c r="F23" s="42">
+        <v>43231</v>
+      </c>
+      <c r="G23" s="42">
+        <v>43231</v>
+      </c>
+      <c r="H23" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="I23" s="39"/>
+      <c r="J23" s="43">
+        <v>-12.03</v>
+      </c>
+      <c r="K23" s="44">
+        <v>11.79</v>
+      </c>
+      <c r="L23" s="44">
+        <v>-141.83000000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A24" s="39" t="s">
+        <v>73</v>
+      </c>
+      <c r="B24" s="40">
+        <v>2300270</v>
+      </c>
+      <c r="C24" s="41">
+        <v>6895889</v>
+      </c>
+      <c r="D24" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="E24" s="39" t="s">
+        <v>12</v>
+      </c>
+      <c r="F24" s="42">
+        <v>43231</v>
+      </c>
+      <c r="G24" s="42">
+        <v>43231</v>
+      </c>
+      <c r="H24" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="I24" s="39"/>
+      <c r="J24" s="43">
+        <v>-12.03</v>
+      </c>
+      <c r="K24" s="44">
+        <v>11.79</v>
+      </c>
+      <c r="L24" s="44">
+        <v>-141.83000000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="26.5" x14ac:dyDescent="0.35">
+      <c r="A25" s="39" t="s">
+        <v>47</v>
+      </c>
+      <c r="B25" s="40">
+        <v>2309771</v>
+      </c>
+      <c r="C25" s="45">
+        <v>7016592</v>
+      </c>
+      <c r="D25" s="39" t="s">
+        <v>77</v>
+      </c>
+      <c r="E25" s="39" t="s">
+        <v>17</v>
+      </c>
+      <c r="F25" s="42">
+        <v>43217</v>
+      </c>
+      <c r="G25" s="42">
+        <v>43217</v>
+      </c>
+      <c r="H25" s="39" t="s">
+        <v>39</v>
+      </c>
+      <c r="I25" s="39"/>
+      <c r="J25" s="43">
+        <v>-1</v>
+      </c>
+      <c r="K25" s="44">
+        <v>383.5</v>
+      </c>
+      <c r="L25" s="44">
+        <v>-383.5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A26" s="18"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A27" s="17"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A28" s="17"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A29" s="16"/>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A30" s="16"/>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A31" s="16"/>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" s="21"/>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" s="21"/>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" s="21"/>
+    <row r="32" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A32" s="19"/>
+    </row>
+    <row r="33" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A33" s="19"/>
+    </row>
+    <row r="34" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A34" s="19"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967294" verticalDpi="0" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -1694,7 +2306,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1706,7 +2318,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
